--- a/1.2-exercicio-locadora/Pasta1.xlsx
+++ b/1.2-exercicio-locadora/Pasta1.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Atividades\1.2-exercicio-locadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{095BDA25-7080-45EC-950D-05CEA35DB090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFE99E5-2B7B-4BD7-8A1C-40E0DDC2B789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="2" xr2:uid="{7603B138-9784-433C-AAE5-3EC8FAC1AFCB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="1" xr2:uid="{7603B138-9784-433C-AAE5-3EC8FAC1AFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,86 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>IDPessoa</t>
-  </si>
-  <si>
-    <t>IDVeiculo</t>
-  </si>
-  <si>
-    <t>IDModelos</t>
-  </si>
-  <si>
-    <t>IDMarcas</t>
-  </si>
-  <si>
-    <t>Prisma</t>
-  </si>
-  <si>
-    <t>Jeta</t>
-  </si>
-  <si>
-    <t>Pejo206</t>
-  </si>
-  <si>
-    <t>BMW X 5</t>
-  </si>
-  <si>
-    <t>Alfa Romeu</t>
-  </si>
-  <si>
-    <t>Ford focus</t>
-  </si>
-  <si>
-    <t>Fiat toru</t>
-  </si>
-  <si>
-    <t>Bulgat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corola </t>
-  </si>
-  <si>
-    <t>Honda City</t>
-  </si>
-  <si>
-    <t>Chevrole</t>
-  </si>
-  <si>
-    <t>Voukswva</t>
-  </si>
-  <si>
-    <t>Pejo</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Fiat</t>
-  </si>
-  <si>
-    <t>Toiota</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>IDAluguel</t>
-  </si>
-  <si>
-    <t>IDCliente</t>
-  </si>
-  <si>
-    <t>IDEmpresa</t>
-  </si>
-  <si>
     <t>Empresa</t>
   </si>
   <si>
@@ -134,12 +58,6 @@
     <t>IDPessoa(PK)</t>
   </si>
   <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>Veiculos</t>
-  </si>
-  <si>
     <t>IDVeiculos(PK)</t>
   </si>
   <si>
@@ -159,29 +77,28 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Veiculo</t>
+  </si>
+  <si>
+    <t>IDCliente(FK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,53 +112,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -311,31 +187,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,12 +210,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
-    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -710,198 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C1C64F-8D66-4D1C-90D1-E3E990AB648D}">
-  <dimension ref="A5:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="8">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E53B1BE-79F8-43DD-B43B-F08DA0F249DE}">
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,243 +597,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-      <c r="K1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="O1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="17"/>
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="O1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>40</v>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="D3" s="13">
+      <c r="B3" s="4"/>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="G3" s="13">
+      <c r="E3" s="4"/>
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="13">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="4">
         <v>1</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="O3" s="13">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="4">
         <v>1</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="D4" s="13">
+      <c r="B4" s="4"/>
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="G4" s="13">
+      <c r="E4" s="4"/>
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="K4" s="13">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="O4" s="13">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="4">
         <v>2</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="D5" s="13">
+      <c r="B5" s="4"/>
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="G5" s="13">
+      <c r="E5" s="4"/>
+      <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="K5" s="13">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="K5" s="4">
         <v>3</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="O5" s="13">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="O5" s="4">
         <v>3</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>43</v>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F15" s="19"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="19"/>
+      <c r="G17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/1.2-exercicio-locadora/Pasta1.xlsx
+++ b/1.2-exercicio-locadora/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Atividades\1.2-exercicio-locadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFE99E5-2B7B-4BD7-8A1C-40E0DDC2B789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E55D48-797D-4585-A228-783A04B3046F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="1" xr2:uid="{7603B138-9784-433C-AAE5-3EC8FAC1AFCB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="47">
   <si>
     <t>Nome</t>
   </si>
@@ -89,13 +89,91 @@
   </si>
   <si>
     <t>IDCliente(FK)</t>
+  </si>
+  <si>
+    <t>Razão social</t>
+  </si>
+  <si>
+    <t>Localiza</t>
+  </si>
+  <si>
+    <t>Aluguel car</t>
+  </si>
+  <si>
+    <t>ZN veiculos</t>
+  </si>
+  <si>
+    <t>Só nave veiculos</t>
+  </si>
+  <si>
+    <t>Vai que Vai Veiculo</t>
+  </si>
+  <si>
+    <t>Chevrole</t>
+  </si>
+  <si>
+    <t>Pejo</t>
+  </si>
+  <si>
+    <t>Toiota</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Onix</t>
+  </si>
+  <si>
+    <t>Palio</t>
+  </si>
+  <si>
+    <t>Corola</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>P.206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose tadeu dos santos </t>
+  </si>
+  <si>
+    <t>Maria aparecida B.dos s.</t>
+  </si>
+  <si>
+    <t>Francisco carlos dos santos</t>
+  </si>
+  <si>
+    <t>Maria jose dos santos</t>
+  </si>
+  <si>
+    <t>Maria cidalia b.dos santos</t>
+  </si>
+  <si>
+    <t>POU-1245</t>
+  </si>
+  <si>
+    <t>UYT-3658</t>
+  </si>
+  <si>
+    <t>TER-6124</t>
+  </si>
+  <si>
+    <t>WAR-8547</t>
+  </si>
+  <si>
+    <t>MNV-2547</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +189,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,7 +206,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,34 +307,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bom" xfId="2" builtinId="26"/>
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -579,17 +705,18 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
@@ -597,223 +724,389 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
-      <c r="O1" s="7" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="6"/>
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="O3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13">
+        <v>1</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>1</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="O4" s="4">
-        <v>2</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="12">
+        <v>2</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>2</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="G5" s="4">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="4">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="O5" s="4">
-        <v>3</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3</v>
+      </c>
+      <c r="K5" s="12">
+        <v>3</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="12">
+        <v>3</v>
+      </c>
+      <c r="O5" s="13">
+        <v>3</v>
+      </c>
+      <c r="P5" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>3</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="11">
+        <v>4</v>
+      </c>
+      <c r="K6" s="12">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="12">
+        <v>4</v>
+      </c>
+      <c r="O6" s="13">
+        <v>4</v>
+      </c>
+      <c r="P6" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>4</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12">
+        <v>5</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="12">
+        <v>5</v>
+      </c>
+      <c r="O7" s="13">
+        <v>5</v>
+      </c>
+      <c r="P7" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>5</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>250</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>350</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14">
+        <v>400</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="14">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14">
+        <v>5</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5</v>
+      </c>
+      <c r="E15" s="14">
+        <v>500</v>
+      </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="6"/>
+      <c r="G17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
